--- a/data/setting.xlsx
+++ b/data/setting.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,9 +451,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>crytodesigns-20</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5804570317:AAFTG6H44coj-IZEMH694S7zaOL7veIe1ao</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>crytodesigns_bot</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
